--- a/SAT_Tester_v2/data/testing/test_questions/SAT_Test_1.xlsx
+++ b/SAT_Tester_v2/data/testing/test_questions/SAT_Test_1.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pampperin\Documents\GitHub\SAT_Test_Engine\SAT_Tester_v2\resources\testing\test_questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pampperin\Documents\GitHub\SAT_Test_Engine\SAT_Tester_v2\data\testing\test_questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="8145"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1" sheetId="1" r:id="rId1"/>
+    <sheet name="SAT_Test_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Kathy repairs phones at a rate of 108 per day</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Which of the following graphs best shows a strong negative association between d and t?</t>
+  </si>
+  <si>
+    <t>QuestionImage</t>
+  </si>
+  <si>
+    <t>Answer Image</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -420,100 +441,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SAT_Tester_v2/data/testing/test_questions/SAT_Test_1.xlsx
+++ b/SAT_Tester_v2/data/testing/test_questions/SAT_Test_1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pampperin\Documents\GitHub\SAT_Test_Engine\SAT_Tester_v2\data\testing\test_questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinoswarleafs\Documents\GitHub\SAT_Test_Engine\SAT_Tester_v2\data\testing\test_questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,68 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
-  <si>
-    <t>Kathy repairs phones at a rate of 108 per day</t>
-  </si>
-  <si>
-    <t>Kathy repairs phones at a rate of 108 per hour</t>
-  </si>
-  <si>
-    <t>Kathy starts each week with 108 phones to fix</t>
-  </si>
-  <si>
-    <t>Kathy will complete the repairs within 108 days</t>
-  </si>
-  <si>
-    <t>Kathy is a repair technician for a phone company.
-Each week, she receives a batch of phones that need repairs. The number of phones that she has left to fix at the end of each day can be estimated with the equation P d = 108 − 23 , where P is the number of phones left and d is the number of days she has worked that week. What is the meaning of the value 108 in this equation?</t>
-  </si>
-  <si>
-    <t>4m + 5p</t>
-  </si>
-  <si>
-    <t>5m + 4p</t>
-  </si>
-  <si>
-    <t>20mp</t>
-  </si>
-  <si>
-    <t>9mp</t>
-  </si>
-  <si>
-    <t>On Saturday afternoon, Armand sent m text messages each hour for 5 hours, and Tyrone sent p text messages each hour for 4 hours. Which of the following represents the total number of messages sent by Armand and Tyrone on Saturday afternoon?</t>
-  </si>
-  <si>
-    <t>15 - 6i</t>
-  </si>
-  <si>
-    <t>15 + 12i</t>
-  </si>
-  <si>
-    <t>-1 - 6i</t>
-  </si>
-  <si>
-    <t>-1 + 12i</t>
-  </si>
-  <si>
-    <t>For i = √−1 , what is the sum (7 + 3i) + (−8 + 9i)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>If (x - 1) / 3 = k and k = 3, what is the value of x ?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="360">
   <si>
     <t>Answer 4</t>
   </si>
@@ -105,28 +44,1081 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Which of the following graphs best shows a strong negative association between d and t?</t>
-  </si>
-  <si>
     <t>QuestionImage</t>
   </si>
   <si>
     <t>Answer Image</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>Prompts</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Which choice best describes what happens in the passage?</t>
+  </si>
+  <si>
+    <t>One character argues with another character
+who intrudes on her home.</t>
+  </si>
+  <si>
+    <t>One character receives a surprising request from
+another character.</t>
+  </si>
+  <si>
+    <t>One character reminisces about choices she has
+made over the years.</t>
+  </si>
+  <si>
+    <t>One character criticizes another character for
+pursuing an unexpected course of action.</t>
+  </si>
+  <si>
+    <t>Which choice best describes the developmental
+pattern of the passage?</t>
+  </si>
+  <si>
+    <t>A careful analysis of a traditional practice</t>
+  </si>
+  <si>
+    <t>A detailed depiction of a meaningful encounter</t>
+  </si>
+  <si>
+    <t>A definitive response to a series of questions</t>
+  </si>
+  <si>
+    <t>A cheerful recounting of an amusing anecdote</t>
+  </si>
+  <si>
+    <t>As used in line 1 and line 65, “directly” most
+nearly means</t>
+  </si>
+  <si>
+    <t>confidently.</t>
+  </si>
+  <si>
+    <t>without mediation.</t>
+  </si>
+  <si>
+    <t>with precision.</t>
+  </si>
+  <si>
+    <t>frankly.</t>
+  </si>
+  <si>
+    <t>Which reaction does Akira most fear from Chie?</t>
+  </si>
+  <si>
+    <t>She will consider his proposal inappropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She will mistake his earnestness for immaturity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She will consider his unscheduled visit an
+imposition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She will underestimate the sincerity of his
+emotions.</t>
+  </si>
+  <si>
+    <t>Which choice provides the best evidence for the
+answer to the previous question?</t>
+  </si>
+  <si>
+    <t>Line 33 (“His voice... refined”)</t>
+  </si>
+  <si>
+    <t>Lines 49-51 (“You... mind”)</t>
+  </si>
+  <si>
+    <t>Lines 63-64 (“Please... proposal”)</t>
+  </si>
+  <si>
+    <t>Lines 71-72 (“Eager... face”)</t>
+  </si>
+  <si>
+    <t>In the passage, Akira addresses Chie with</t>
+  </si>
+  <si>
+    <t>affection but not genuine love</t>
+  </si>
+  <si>
+    <t>objectivity but not complete impartiality.</t>
+  </si>
+  <si>
+    <t>amusement but not mocking disparagement.</t>
+  </si>
+  <si>
+    <t>respect but not utter deference.</t>
+  </si>
+  <si>
+    <t>The main purpose of the first paragraph is to</t>
+  </si>
+  <si>
+    <t>describe a culture</t>
+  </si>
+  <si>
+    <t>criticize a tradition.</t>
+  </si>
+  <si>
+    <t>question a suggestion.</t>
+  </si>
+  <si>
+    <t>analyze a reaction.</t>
+  </si>
+  <si>
+    <t>As used in line 2, “form” most nearly means</t>
+  </si>
+  <si>
+    <t>appearance.</t>
+  </si>
+  <si>
+    <t>custom.</t>
+  </si>
+  <si>
+    <t>structure.</t>
+  </si>
+  <si>
+    <t>nature.</t>
+  </si>
+  <si>
+    <t>Why does Akira say his meeting with Chie is “a matter of urgency” (line 32)?</t>
+  </si>
+  <si>
+    <t>He fears that his own parents will disapprove of Naomi.</t>
+  </si>
+  <si>
+    <t>He worries that Naomi will reject him and marry someone else.</t>
+  </si>
+  <si>
+    <t>He has been offered an attractive job in another country.</t>
+  </si>
+  <si>
+    <t>He knows that Chie is unaware of his feelings for Naomi.</t>
+  </si>
+  <si>
+    <t>Which choice provides the best evidence for the answer to the previous question?</t>
+  </si>
+  <si>
+    <t>Line 39 (“I don’t... you”)</t>
+  </si>
+  <si>
+    <t>Lines 39-42 (“Normally... community”)</t>
+  </si>
+  <si>
+    <t>Lines 58-59 (“Depending... Japan”)</t>
+  </si>
+  <si>
+    <t>Lines 72-73 (“I see... you”)</t>
+  </si>
+  <si>
+    <t>regularity with which people shop for gifts.</t>
+  </si>
+  <si>
+    <t>recent increase in the amount of money spent on gifts.</t>
+  </si>
+  <si>
+    <t>anxiety gift shopping causes for consumers.</t>
+  </si>
+  <si>
+    <t>number of special occasions involving gift-giving.</t>
+  </si>
+  <si>
+    <t>In line 10, the word “ambivalent” most nearly means</t>
+  </si>
+  <si>
+    <t>unrealistic.</t>
+  </si>
+  <si>
+    <t>conflicted</t>
+  </si>
+  <si>
+    <t>apprehensive.</t>
+  </si>
+  <si>
+    <t>supportive.</t>
+  </si>
+  <si>
+    <t>The authors indicate that people value gift-giving because they feel it</t>
+  </si>
+  <si>
+    <t>functions as a form of self-expression.</t>
+  </si>
+  <si>
+    <t>is an inexpensive way to show appreciation</t>
+  </si>
+  <si>
+    <t>requires the gift-recipient to reciprocate.</t>
+  </si>
+  <si>
+    <t>can serve to strengthen a relationship.</t>
+  </si>
+  <si>
+    <t>Lines 10-13 (“Many... peers”)</t>
+  </si>
+  <si>
+    <t>Lines 22-23 (“People... own”)</t>
+  </si>
+  <si>
+    <t>Lines 31-32 (“Research... perspectives”)</t>
+  </si>
+  <si>
+    <t>Lines 44-47 (“Although... unfounded”)</t>
+  </si>
+  <si>
+    <t>The “social psychologists” mentioned in paragraph 2 (lines 17-34) would likely describe the “deadweight loss” phenomenon as</t>
+  </si>
+  <si>
+    <t>predictable.</t>
+  </si>
+  <si>
+    <t>questionable.</t>
+  </si>
+  <si>
+    <t>disturbing.</t>
+  </si>
+  <si>
+    <t>unprecedented.</t>
+  </si>
+  <si>
+    <t>The passage indicates that the assumption made by gift-givers in lines 41-44 may be</t>
+  </si>
+  <si>
+    <t>insincere.</t>
+  </si>
+  <si>
+    <t>unreasonable.</t>
+  </si>
+  <si>
+    <t>incorrect.</t>
+  </si>
+  <si>
+    <t>substantiated.</t>
+  </si>
+  <si>
+    <t>Lines 53-55 (“Perhaps... consideration”)</t>
+  </si>
+  <si>
+    <t>Lines 55-60 (“According... relationship”)</t>
+  </si>
+  <si>
+    <t>Lines 63-65 (“As... consideration”)</t>
+  </si>
+  <si>
+    <t>Lines 75-78 (“In... relations”)</t>
+  </si>
+  <si>
+    <t>As it is used in line 54, “convey” most nearly means</t>
+  </si>
+  <si>
+    <t>The authors most likely use the examples in lines 1-9 of the passage (“Every... showers”) to highlight the</t>
+  </si>
+  <si>
+    <t>transport.</t>
+  </si>
+  <si>
+    <t>counteract.</t>
+  </si>
+  <si>
+    <t>exchange.</t>
+  </si>
+  <si>
+    <t>communicate.</t>
+  </si>
+  <si>
+    <t>The authors refer to work by Camerer and others (line 56) in order to</t>
+  </si>
+  <si>
+    <t>offer an explanation.</t>
+  </si>
+  <si>
+    <t>introduce an argument.</t>
+  </si>
+  <si>
+    <t>question a motive.</t>
+  </si>
+  <si>
+    <t>support a conclusion</t>
+  </si>
+  <si>
+    <t>The graph following the passage offers evidence that gift-givers base their predictions of how much a gift will be appreciated on</t>
+  </si>
+  <si>
+    <t>the appreciation level of the gift-recipients.</t>
+  </si>
+  <si>
+    <t>the monetary value of the gift.</t>
+  </si>
+  <si>
+    <t>their own desires for the gifts they purchase.</t>
+  </si>
+  <si>
+    <t>their relationship with the gift-recipients.</t>
+  </si>
+  <si>
+    <t>The authors would likely attribute the differences in gift-giver and recipient mean appreciation as represented in the graph to</t>
+  </si>
+  <si>
+    <t>an inability to shift perspective.</t>
+  </si>
+  <si>
+    <t>an increasingly materialistic culture.</t>
+  </si>
+  <si>
+    <t>a growing opposition to gift-giving.</t>
+  </si>
+  <si>
+    <t>a misunderstanding of intentions.</t>
+  </si>
+  <si>
+    <t>The authors use the word “backbone” in lines 3 and 39 to indicate that</t>
+  </si>
+  <si>
+    <t>only very long chains of DNA can be taken from an organism with a spinal column.</t>
+  </si>
+  <si>
+    <t>the main structure of a chain in a DNA molecule is composed of repeating units.</t>
+  </si>
+  <si>
+    <t>a chain in a DNA molecule consists entirely of phosphate groups or of sugars.</t>
+  </si>
+  <si>
+    <t>nitrogenous bases form the main structural unit of DNA.</t>
+  </si>
+  <si>
+    <t>A student claims that nitrogenous bases pair randomly with one another. Which of the following statements in the passage contradicts the student’s claim?</t>
+  </si>
+  <si>
+    <t>Lines 5-6 (“To each... types”)</t>
+  </si>
+  <si>
+    <t>Lines 9-10 (“So far... irregular”)</t>
+  </si>
+  <si>
+    <t>Lines 23-25 (“The bases... other”)</t>
+  </si>
+  <si>
+    <t>Lines 27-29 (“One member... chains”)</t>
+  </si>
+  <si>
+    <t>The chemical formula of DNA</t>
+  </si>
+  <si>
+    <t>The common fiber axis</t>
+  </si>
+  <si>
+    <t>The X-ray evidence</t>
+  </si>
+  <si>
+    <t>DNA consisting of two chains</t>
+  </si>
+  <si>
+    <t>The authors’ main purpose of including the information about X-ray evidence and density is to</t>
+  </si>
+  <si>
+    <t>establish that DNA is the molecule that carries the genetic information.</t>
+  </si>
+  <si>
+    <t>present an alternate hypothesis about the composition of a nucleotide.</t>
+  </si>
+  <si>
+    <t>provide support for the authors’ claim about the number of chains in a molecule of DNA.</t>
+  </si>
+  <si>
+    <t>confirm the relationship between the density of DNA and the known chemical formula of DNA.</t>
+  </si>
+  <si>
+    <t>Based on the passage, the authors’ statement “If a pair consisted of two purines, for example, there would not be room for it” (lines 29-30) implies that a pair</t>
+  </si>
+  <si>
+    <t>of purines would be larger than the space between a sugar and a phosphate group.</t>
+  </si>
+  <si>
+    <t>of purines would be larger than a pair consisting of a purine and a pyrimidine.</t>
+  </si>
+  <si>
+    <t>of pyrimidines would be larger than a pair of purines.</t>
+  </si>
+  <si>
+    <t>consisting of a purine and a pyrimidine would be larger than a pair of pyrimidines</t>
+  </si>
+  <si>
+    <t>The authors’ use of the words “exact,” “specific,” and “complement” in lines 47-49 in the final paragraph functions mainly to</t>
+  </si>
+  <si>
+    <t>confirm that the nucleotide sequences are known for most molecules of DNA.</t>
+  </si>
+  <si>
+    <t>counter the claim that the sequences of bases along a chain can occur in any order.</t>
+  </si>
+  <si>
+    <t>support the claim that the phosphate-sugar backbone of the authors’ model is completely regular.</t>
+  </si>
+  <si>
+    <t>emphasize how one chain of DNA may serve as a template to be copied during DNA replication.</t>
+  </si>
+  <si>
+    <t>Based on the table and passage, which choice gives the correct percentages of the purines in yeast DNA?</t>
+  </si>
+  <si>
+    <t>17.1% and 18.7%</t>
+  </si>
+  <si>
+    <t>17.1% and 32.9%</t>
+  </si>
+  <si>
+    <t>18.7% and 31.3%</t>
+  </si>
+  <si>
+    <t>31.3% and 32.9%</t>
+  </si>
+  <si>
+    <t>Do the data in the table support the authors’ proposed pairing of bases in DNA?</t>
+  </si>
+  <si>
+    <t>Yes, because for each given organism, the percentage of adenine is closest to the percentage of thymine, and the percentage of guanine is closest to the percentage of cytosine.</t>
+  </si>
+  <si>
+    <t>Yes, because for each given organism, the percentage of adenine is closest to the percentage of guanine, and the percentage of cytosine is closest to the percentage of thymine.</t>
+  </si>
+  <si>
+    <t>No, because for each given organism, the percentage of adenine is closest to the percentage of thymine, and the percentage of guanine is closest to the percentage of cytosine.</t>
+  </si>
+  <si>
+    <t>No, because for each given organism, the percentage of adenine is closest to the percentage of guanine, and the percentage of cytosine is closest to the percentage of thymine.</t>
+  </si>
+  <si>
+    <t>17.3% and 17.7%</t>
+  </si>
+  <si>
+    <t>According to the table, which of the following pairs of base percentages in sea urchin DNA provides evidence in support of the answer to the previous question?</t>
+  </si>
+  <si>
+    <t>In the second paragraph (lines 12-19), what do the authors claim to be a feature of biological interest?</t>
+  </si>
+  <si>
+    <t>17.3% and 32.1%</t>
+  </si>
+  <si>
+    <t>17.3% and 32.8%</t>
+  </si>
+  <si>
+    <t>17.7% and 32.8%</t>
+  </si>
+  <si>
+    <t>Based on the table, is the percentage of adenine in each organism’s DNA the same or does it vary, and which statement made by the authors is most consistent with that data?</t>
+  </si>
+  <si>
+    <t>The same; “Two of... pyrimidines” (lines 6-8)</t>
+  </si>
+  <si>
+    <t>The same; “The important... structure” (lines 25-26)</t>
+  </si>
+  <si>
+    <t>It varies; “Adenine... thymine” (lines 36-38)</t>
+  </si>
+  <si>
+    <t>It varies; “It follows... information” (lines 41-45)</t>
+  </si>
+  <si>
+    <t>The main purpose of the passage is to</t>
+  </si>
+  <si>
+    <t>The central claim of the passage is that</t>
+  </si>
+  <si>
+    <t>Woolf uses the word “we” throughout the passage mainly to</t>
+  </si>
+  <si>
+    <t>emphasize the value of a tradition.</t>
+  </si>
+  <si>
+    <t>stress the urgency of an issue.</t>
+  </si>
+  <si>
+    <t>highlight the severity of social divisions.</t>
+  </si>
+  <si>
+    <t>question the feasibility of an undertaking</t>
+  </si>
+  <si>
+    <t>educated women face a decision about how to engage with existing institutions.</t>
+  </si>
+  <si>
+    <t>women can have positions of influence in English society only if they give up some of their traditional roles.</t>
+  </si>
+  <si>
+    <t>the male monopoly on power in English society has had grave and continuing effects.</t>
+  </si>
+  <si>
+    <t>the entry of educated women into positions of power traditionally held by men will transform those positions.</t>
+  </si>
+  <si>
+    <t>reflect the growing friendliness among a group of people.</t>
+  </si>
+  <si>
+    <t>advance the need for candor among a group of people.</t>
+  </si>
+  <si>
+    <t>establish a sense of solidarity among a group of people.</t>
+  </si>
+  <si>
+    <t>reinforce the need for respect among a group of people.</t>
+  </si>
+  <si>
+    <t>According to the passage, Woolf chooses the setting of the bridge because it</t>
+  </si>
+  <si>
+    <t>is conducive to a mood of fanciful reflection.</t>
+  </si>
+  <si>
+    <t>provides a good view of the procession of the sons of educated men.</t>
+  </si>
+  <si>
+    <t>is within sight of historic episodes to which she alludes.</t>
+  </si>
+  <si>
+    <t>is symbolic of the legacy of past and present sons of educated men.</t>
+  </si>
+  <si>
+    <t>Woolf indicates that the procession she describes in the passage</t>
+  </si>
+  <si>
+    <t>has come to have more practical influence in recent years.</t>
+  </si>
+  <si>
+    <t>has become a celebrated feature of English public life.</t>
+  </si>
+  <si>
+    <t>includes all of the richest and most powerful men in England.</t>
+  </si>
+  <si>
+    <t>has become less exclusionary in its membership in recent years.</t>
+  </si>
+  <si>
+    <t>Lines 12-17 (“There... money”)</t>
+  </si>
+  <si>
+    <t>Lines 17-19 (“It... desert”)</t>
+  </si>
+  <si>
+    <t>Lines 23-24 (“For... ourselves”)</t>
+  </si>
+  <si>
+    <t>Lines 30-34 (“We... pulpit”)</t>
+  </si>
+  <si>
+    <t>Woolf characterizes the questions in lines 53-57 (“For we... men”) as both</t>
+  </si>
+  <si>
+    <t>controversial and threatening</t>
+  </si>
+  <si>
+    <t>weighty and unanswerable.</t>
+  </si>
+  <si>
+    <t>momentous and pressing.</t>
+  </si>
+  <si>
+    <t>provocative and mysterious</t>
+  </si>
+  <si>
+    <t>Lines 46-47 (“We... questions”)</t>
+  </si>
+  <si>
+    <t>Lines 48-49 (“And... them”)</t>
+  </si>
+  <si>
+    <t>Line 57 (“The moment... short”)</t>
+  </si>
+  <si>
+    <t>Line 62 (“That... Madam”)</t>
+  </si>
+  <si>
+    <t>Which choice most closely captures the meaning of the figurative “sixpence” referred to in lines 70 and 71?</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Perspective</t>
+  </si>
+  <si>
+    <t>The range of places and occasions listed in lines 72-76 (“Let us... funerals”) mainly serves to emphasize how</t>
+  </si>
+  <si>
+    <t>novel the challenge faced by women is</t>
+  </si>
+  <si>
+    <t>pervasive the need for critical reflection is.</t>
+  </si>
+  <si>
+    <t>complex the political and social issues of the day are.</t>
+  </si>
+  <si>
+    <t>enjoyable the career possibilities for women are.</t>
+  </si>
+  <si>
+    <t>In lines 9-17, the author of Passage 1 mentions several companies primarily to</t>
+  </si>
+  <si>
+    <t>note the technological advances that make space mining possible.</t>
+  </si>
+  <si>
+    <t>provide evidence of the growing interest in space mining.</t>
+  </si>
+  <si>
+    <t>emphasize the large profits to be made from space mining.</t>
+  </si>
+  <si>
+    <t>highlight the diverse ways to carry out space mining operations.</t>
+  </si>
+  <si>
+    <t>The author of Passage 1 indicates that space mining could have which positive effect?</t>
+  </si>
+  <si>
+    <t>It could yield materials important to Earth’s economy.</t>
+  </si>
+  <si>
+    <t>It could raise the value of some precious metals on Earth.</t>
+  </si>
+  <si>
+    <t>It could create unanticipated technological innovations.</t>
+  </si>
+  <si>
+    <t>It could change scientists’ understanding of space resources.</t>
+  </si>
+  <si>
+    <t>Lines 18-22 (“Within... lanthanum”)</t>
+  </si>
+  <si>
+    <t>Lines 24-28 (“They... projects”)</t>
+  </si>
+  <si>
+    <t>Lines 29-30 (“In this... commodity”)</t>
+  </si>
+  <si>
+    <t>Lines 41-44 (“Companies... machinery”)</t>
+  </si>
+  <si>
+    <t>What function does the discussion of water in lines 35-40 serve in Passage 1?</t>
+  </si>
+  <si>
+    <t>It continues an extended comparison that begins in the previous paragraph.</t>
+  </si>
+  <si>
+    <t>It provides an unexpected answer to a question raised in the previous paragraph.</t>
+  </si>
+  <si>
+    <t>It offers hypothetical examples supporting a claim made in the previous paragraph.</t>
+  </si>
+  <si>
+    <t>It examines possible outcomes of a proposal put forth in the previous paragraph.</t>
+  </si>
+  <si>
+    <t>The central claim of Passage 2 is that space mining has positive potential but</t>
+  </si>
+  <si>
+    <t>it will end up encouraging humanity’s reckless treatment of the environment.</t>
+  </si>
+  <si>
+    <t>its effects should be thoughtfully considered before it becomes a reality</t>
+  </si>
+  <si>
+    <t>such potential may not include replenishing key resources that are disappearing on Earth.</t>
+  </si>
+  <si>
+    <t>experts disagree about the commercial viability of the discoveries it could yield.</t>
+  </si>
+  <si>
+    <t>As used in line 68, “hold” most nearly means</t>
+  </si>
+  <si>
+    <t>maintain.</t>
+  </si>
+  <si>
+    <t>grip.</t>
+  </si>
+  <si>
+    <t>restrain.</t>
+  </si>
+  <si>
+    <t>withstand.</t>
+  </si>
+  <si>
+    <t>Which statement best describes the relationship between the passages?</t>
+  </si>
+  <si>
+    <t>Passage 2 refutes the central claim advanced in Passage 1.</t>
+  </si>
+  <si>
+    <t>Passage 2 illustrates the phenomenon described in more general terms in Passage 1.</t>
+  </si>
+  <si>
+    <t>Passage 2 argues against the practicality of the proposals put forth in Passage 1.</t>
+  </si>
+  <si>
+    <t>Passage 2 expresses reservations about developments discussed in Passage 1.</t>
+  </si>
+  <si>
+    <t>The author of Passage 2 would most likely respond to the discussion of the future of space mining in lines 18-28, Passage 1, by claiming that such a future</t>
+  </si>
+  <si>
+    <t>is inconsistent with the sustainable use of space resources.</t>
+  </si>
+  <si>
+    <t>will be difficult to bring about in the absence of regulations.</t>
+  </si>
+  <si>
+    <t>cannot be attained without technologies that do not yet exist.</t>
+  </si>
+  <si>
+    <t>seems certain to affect Earth’s economy in a negative way.</t>
+  </si>
+  <si>
+    <t>45 As used in line 19, “demands” most nearly means</t>
+  </si>
+  <si>
+    <t>offers.</t>
+  </si>
+  <si>
+    <t>claims.</t>
+  </si>
+  <si>
+    <t>inquiries.</t>
+  </si>
+  <si>
+    <t>desires.</t>
+  </si>
+  <si>
+    <t>Lines 60-63 (“Some... pristine”)</t>
+  </si>
+  <si>
+    <t>Lines 74-76 (“The resources... Earth”)</t>
+  </si>
+  <si>
+    <t>Lines 81-83 (“One... avoided”)</t>
+  </si>
+  <si>
+    <t>Lines 85-87 (“Without... insecure”)</t>
+  </si>
+  <si>
+    <t>Which point about the resources that will be highly valued in space is implicit in Passage 1 and explicit in Passage 2?</t>
+  </si>
+  <si>
+    <t>They will be valuable only if they can be harvested cheaply.</t>
+  </si>
+  <si>
+    <t>They are likely to be primarily precious metals and rare earth elements.</t>
+  </si>
+  <si>
+    <t>They may increase in value as those same resources become rare on Earth.</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>NO CHANGE</t>
+  </si>
+  <si>
+    <t>defeat</t>
+  </si>
+  <si>
+    <t>outperform</t>
+  </si>
+  <si>
+    <t>outweigh</t>
+  </si>
+  <si>
+    <t>supplement and convert it into gas to use as fuel in electricity production.</t>
+  </si>
+  <si>
+    <t>supplement, while sweet whey is more desirable as a food additive for humans.</t>
+  </si>
+  <si>
+    <t>supplement, which provides an important element of their diet.</t>
+  </si>
+  <si>
+    <t>Which choice provides the most relevant detail?</t>
+  </si>
+  <si>
+    <t>can pollute waterway s,</t>
+  </si>
+  <si>
+    <t>could have polluted waterways,</t>
+  </si>
+  <si>
+    <t>has polluted waterway’s,</t>
+  </si>
+  <si>
+    <t>scientists: and</t>
+  </si>
+  <si>
+    <t>scientists, and</t>
+  </si>
+  <si>
+    <t>scientists, and,</t>
+  </si>
+  <si>
+    <t>To make this paragraph most logical, sentence 5 should be placed</t>
+  </si>
+  <si>
+    <t>where it is now.</t>
+  </si>
+  <si>
+    <t>after sentence 1.</t>
+  </si>
+  <si>
+    <t>after sentence 2.</t>
+  </si>
+  <si>
+    <t>after sentence 3.</t>
+  </si>
+  <si>
+    <t>The writer is considering deleting the underlined sentence. Should the writer do this?</t>
+  </si>
+  <si>
+    <t>Yes, because it does not provide a transition from the previous paragraph.</t>
+  </si>
+  <si>
+    <t>Yes, because it fails to support the main argument of the passage as introduced in the first paragraph.</t>
+  </si>
+  <si>
+    <t>No, because it continues the explanation of how acid whey can be disposed of safely.</t>
+  </si>
+  <si>
+    <t>No, because it sets up the argument in the paragraph for the benefits of Greek yogurt.</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>containing</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>will contain</t>
+  </si>
+  <si>
+    <t>In other words,</t>
+  </si>
+  <si>
+    <t>Therefore,</t>
+  </si>
+  <si>
+    <t>For instance,</t>
+  </si>
+  <si>
+    <t>fulfilled</t>
+  </si>
+  <si>
+    <t>complacent</t>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>it, farmers</t>
+  </si>
+  <si>
+    <t>it, so farmers</t>
+  </si>
+  <si>
+    <t>it: farmers</t>
+  </si>
+  <si>
+    <t>Which choice most accurately and effectively represents the information in the graph?</t>
+  </si>
+  <si>
+    <t>to 12 degrees Fahrenheit</t>
+  </si>
+  <si>
+    <t>to their lowest point on December 13.</t>
+  </si>
+  <si>
+    <t>to 10 degrees Fahrenheit and stay there for months.</t>
+  </si>
+  <si>
+    <t>Which choice most effectively combines the two sentences at the underlined portion?</t>
+  </si>
+  <si>
+    <t>summer, following</t>
+  </si>
+  <si>
+    <t>summer, and this thawing follows</t>
+  </si>
+  <si>
+    <t>summer, and such thawing follows</t>
+  </si>
+  <si>
+    <t>summer and this evidence follows</t>
+  </si>
+  <si>
+    <t>However,</t>
+  </si>
+  <si>
+    <t>As such,</t>
+  </si>
+  <si>
+    <t>Moreover,</t>
+  </si>
+  <si>
+    <t>Box an associate professor of geology at Ohio State,</t>
+  </si>
+  <si>
+    <t>Box, an associate professor of geology at Ohio State,</t>
+  </si>
+  <si>
+    <t>Box, an associate professor of geology, at Ohio State</t>
+  </si>
+  <si>
+    <t>thaw; and it was</t>
+  </si>
+  <si>
+    <t>thaw:</t>
+  </si>
+  <si>
+    <t>thaw: being</t>
+  </si>
+  <si>
+    <t>soot</t>
+  </si>
+  <si>
+    <t>of which</t>
+  </si>
+  <si>
+    <t>DELETE the underlined portion</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>will fall</t>
+  </si>
+  <si>
+    <t>had fallen</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>Which choice best completes the description of a self-reinforcing cycle?</t>
+  </si>
+  <si>
+    <t>raises the surface temperature</t>
+  </si>
+  <si>
+    <t>begins to cool at a certain point.</t>
+  </si>
+  <si>
+    <t>leads to additional melting.</t>
+  </si>
+  <si>
+    <t>itself,</t>
+  </si>
+  <si>
+    <t>itself, with damage and</t>
+  </si>
+  <si>
+    <t>itself possibly,</t>
+  </si>
+  <si>
+    <t>To make this paragraph most logical, sentence 4 should be placed</t>
+  </si>
+  <si>
+    <t>after sentence 1</t>
+  </si>
+  <si>
+    <t>after sentence 2</t>
+  </si>
+  <si>
+    <t>after sentence 5</t>
+  </si>
+  <si>
+    <t>was promptly worn</t>
+  </si>
+  <si>
+    <t>promptly wore</t>
+  </si>
+  <si>
+    <t>wore</t>
+  </si>
+  <si>
+    <t>colleagues were important for sharing ideas.</t>
+  </si>
+  <si>
+    <t>ideas couldn’t be shared with colleagues.</t>
+  </si>
+  <si>
+    <t>I missed having colleagues nearby to consult.</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>upon</t>
+  </si>
+  <si>
+    <t>equipment, such as:</t>
+  </si>
+  <si>
+    <t>equipment such as:</t>
+  </si>
+  <si>
+    <t>equipment, such as,</t>
+  </si>
+  <si>
+    <t>In addition to equipment,</t>
+  </si>
+  <si>
+    <t>For these reasons,</t>
+  </si>
+  <si>
+    <t>Likewise,</t>
+  </si>
+  <si>
+    <t>The writer is considering deleting the underlined sentence. Should the sentence be kept or deleted?</t>
+  </si>
+  <si>
+    <t>Kept, because it provides a detail that supports the main topic of the paragraph.</t>
+  </si>
+  <si>
+    <t>Kept, because it sets up the main topic of the paragraph that follows.</t>
+  </si>
+  <si>
+    <t>Deleted, because it blurs the paragraph’s main focus with a loosely related detail.</t>
+  </si>
+  <si>
+    <t>Deleted, because it repeats information that has been provided in an earlier paragraph.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,10 +1148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,159 +1434,1930 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" t="s">
+        <v>205</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" t="s">
+        <v>254</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" t="s">
+        <v>239</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" t="s">
+        <v>244</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
+        <v>249</v>
+      </c>
+      <c r="I51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" t="s">
+        <v>257</v>
+      </c>
+      <c r="F52" t="s">
+        <v>258</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" t="s">
+        <v>267</v>
+      </c>
+      <c r="I54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" t="s">
+        <v>270</v>
+      </c>
+      <c r="I55" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" t="s">
+        <v>264</v>
+      </c>
+      <c r="D56" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" t="s">
+        <v>273</v>
+      </c>
+      <c r="F56" t="s">
+        <v>274</v>
+      </c>
+      <c r="I56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57" t="s">
+        <v>277</v>
+      </c>
+      <c r="I57" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" t="s">
+        <v>281</v>
+      </c>
+      <c r="F58" t="s">
+        <v>282</v>
+      </c>
+      <c r="I58" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59" t="s">
+        <v>287</v>
+      </c>
+      <c r="I59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" t="s">
+        <v>288</v>
+      </c>
+      <c r="E60" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" t="s">
+        <v>290</v>
+      </c>
+      <c r="I60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" t="s">
+        <v>291</v>
+      </c>
+      <c r="E61" t="s">
+        <v>292</v>
+      </c>
+      <c r="F61" t="s">
+        <v>293</v>
+      </c>
+      <c r="I61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" t="s">
+        <v>264</v>
+      </c>
+      <c r="D62" t="s">
+        <v>294</v>
+      </c>
+      <c r="E62" t="s">
+        <v>295</v>
+      </c>
+      <c r="F62" t="s">
+        <v>296</v>
+      </c>
+      <c r="I62" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" t="s">
+        <v>298</v>
+      </c>
+      <c r="F63" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" t="s">
+        <v>302</v>
+      </c>
+      <c r="I64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" t="s">
+        <v>305</v>
+      </c>
+      <c r="F65" t="s">
+        <v>306</v>
+      </c>
+      <c r="I65" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F66" t="s">
+        <v>311</v>
+      </c>
+      <c r="I66" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" t="s">
+        <v>314</v>
+      </c>
+      <c r="I67" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" t="s">
+        <v>315</v>
+      </c>
+      <c r="E68" t="s">
+        <v>316</v>
+      </c>
+      <c r="F68" t="s">
+        <v>317</v>
+      </c>
+      <c r="I68" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" t="s">
+        <v>319</v>
+      </c>
+      <c r="F69" t="s">
+        <v>320</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" t="s">
+        <v>322</v>
+      </c>
+      <c r="F70" t="s">
+        <v>323</v>
+      </c>
+      <c r="I70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+      <c r="I71" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" t="s">
+        <v>327</v>
+      </c>
+      <c r="E72" t="s">
+        <v>328</v>
+      </c>
+      <c r="F72" t="s">
+        <v>329</v>
+      </c>
+      <c r="I72" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" t="s">
+        <v>332</v>
+      </c>
+      <c r="F73" t="s">
+        <v>333</v>
+      </c>
+      <c r="I73" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" t="s">
+        <v>334</v>
+      </c>
+      <c r="E74" t="s">
+        <v>335</v>
+      </c>
+      <c r="F74" t="s">
+        <v>336</v>
+      </c>
+      <c r="I74" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C75" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" t="s">
+        <v>338</v>
+      </c>
+      <c r="E75" t="s">
+        <v>339</v>
+      </c>
+      <c r="F75" t="s">
+        <v>340</v>
+      </c>
+      <c r="I75" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
+        <v>341</v>
+      </c>
+      <c r="E76" t="s">
+        <v>342</v>
+      </c>
+      <c r="F76" t="s">
+        <v>343</v>
+      </c>
+      <c r="I76" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" t="s">
+        <v>344</v>
+      </c>
+      <c r="E77" t="s">
+        <v>345</v>
+      </c>
+      <c r="F77" t="s">
+        <v>346</v>
+      </c>
+      <c r="I77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E78" t="s">
+        <v>348</v>
+      </c>
+      <c r="F78" t="s">
+        <v>290</v>
+      </c>
+      <c r="I78" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" t="s">
+        <v>349</v>
+      </c>
+      <c r="E79" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79" t="s">
+        <v>351</v>
+      </c>
+      <c r="I79" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" t="s">
+        <v>352</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I80" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C81" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" t="s">
+        <v>357</v>
+      </c>
+      <c r="E81" t="s">
+        <v>358</v>
+      </c>
+      <c r="F81" t="s">
+        <v>359</v>
+      </c>
+      <c r="I81" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I82" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I83" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I84" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I85" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
